--- a/mbs-perturbation/nano/elm/nearmiss/nano_elm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/nano/elm/nearmiss/nano_elm_tanh_nearmiss_results.xlsx
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.6426592797783933</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5976190476190475</v>
+        <v>0.4986149584487534</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5513784461152882</v>
+        <v>0.407202216066482</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.75</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4624060150375939</v>
+        <v>0.4602941176470589</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5128205128205129</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5808080808080808</v>
+        <v>0.5764705882352941</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7240573152337858</v>
+        <v>0.7572727272727272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.343941672362725</v>
+        <v>0.2486687306501548</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4548014077425842</v>
+        <v>0.3621739130434782</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5805475810738968</v>
+        <v>0.5170482320351963</v>
       </c>
     </row>
   </sheetData>
